--- a/Set of requests.xlsx
+++ b/Set of requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leila\Documents\ResearchWork\Edge Computing\Energy for Edge-Cloud Computing Papers\Energy-SLA-aware with genetic algorithm\Future generation computer systems\minor revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE220E7-B088-4F88-8A40-49E096F3E552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5E146-A4A1-4D4C-AF46-11B0D1500C93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
